--- a/cargas/static/modelo_excel/modelo_op_pintura.xlsx
+++ b/cargas/static/modelo_excel/modelo_op_pintura.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr codeName="EstaPastaDeTrabalho"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1CDFE9-A88A-4F33-A351-F7A392B8B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OP" sheetId="2" r:id="rId1"/>
@@ -18,18 +24,6 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -104,9 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -471,7 +464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
@@ -495,18 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,11 +505,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,6 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,8 +534,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,15 +546,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,11 +565,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,7 +619,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9219"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBB344BA-AC55-4C61-9462-985775D64481}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB344BA-AC55-4C61-9462-985775D64481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +672,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9220"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60B0018D-E823-42F1-8D63-3786AA4C83B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B0018D-E823-42F1-8D63-3786AA4C83B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +725,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9221"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B668CF7-6FEA-4C29-BF70-A85449494F9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B668CF7-6FEA-4C29-BF70-A85449494F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +773,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9221"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2F68903-A72A-4A3E-93D4-4435E210A922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F68903-A72A-4A3E-93D4-4435E210A922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,7 +823,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7935647-9237-48C6-8B27-C196B4D4ECC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7935647-9237-48C6-8B27-C196B4D4ECC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -894,7 +884,7 @@
         <xdr:cNvPr id="7" name="Conector reto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF9CAE41-AA52-499F-93A7-668B69A19BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9CAE41-AA52-499F-93A7-668B69A19BB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,7 +934,7 @@
         <xdr:cNvPr id="8" name="Conector reto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD0C5B62-23A5-41AE-AD83-EC74440E1839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0C5B62-23A5-41AE-AD83-EC74440E1839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,7 +984,7 @@
         <xdr:cNvPr id="9" name="Conector reto 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D4B2342-5518-44DD-A7DD-078A3EC62A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4B2342-5518-44DD-A7DD-078A3EC62A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1034,7 @@
         <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E146A6D-F9B2-4627-A375-7564A36C4B38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E146A6D-F9B2-4627-A375-7564A36C4B38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1083,7 @@
         <xdr:cNvPr id="10" name="Imagem 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19324B7E-F570-AD63-04A5-2412AFB97FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19324B7E-F570-AD63-04A5-2412AFB97FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,180 +1401,180 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AP2"/>
+      <selection activeCell="M4" sqref="M4:AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="1.109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="2" style="12" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="0.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="0.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="2.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="2.109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="2.33203125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="2.33203125" style="12" customWidth="1"/>
     <col min="21" max="21" width="3" style="12" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="2.42578125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="2.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="1.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="3.88671875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.44140625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="2.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="1.33203125" style="12" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="4" style="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="1.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="1.7109375" style="12" customWidth="1"/>
-    <col min="31" max="32" width="1.140625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="2.5703125" style="12" customWidth="1"/>
-    <col min="35" max="35" width="1.5703125" style="12" customWidth="1"/>
-    <col min="36" max="37" width="2.140625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" style="12" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" style="12" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" style="12" customWidth="1"/>
-    <col min="41" max="41" width="6.28515625" style="12" customWidth="1"/>
-    <col min="42" max="42" width="0.7109375" style="12" customWidth="1"/>
-    <col min="43" max="47" width="2.28515625" style="12" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="12"/>
+    <col min="28" max="28" width="2.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="1.44140625" style="12" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="1.6640625" style="12" customWidth="1"/>
+    <col min="31" max="32" width="1.109375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="3.109375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="2.5546875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="1.5546875" style="12" customWidth="1"/>
+    <col min="36" max="37" width="2.109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="4.109375" style="12" customWidth="1"/>
+    <col min="39" max="39" width="8.44140625" style="12" customWidth="1"/>
+    <col min="40" max="40" width="7.5546875" style="12" customWidth="1"/>
+    <col min="41" max="41" width="6.33203125" style="12" customWidth="1"/>
+    <col min="42" max="42" width="0.6640625" style="12" customWidth="1"/>
+    <col min="43" max="47" width="2.33203125" style="12" customWidth="1"/>
+    <col min="48" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="38" t="s">
+    <row r="1" spans="1:52" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="40" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="41" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="43"/>
-    </row>
-    <row r="3" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="39"/>
+    </row>
+    <row r="3" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="18"/>
       <c r="O3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17" t="s">
         <v>16</v>
@@ -1596,22 +1586,22 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="56" t="s">
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
       <c r="AN3" s="18"/>
       <c r="AO3" s="18"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1625,86 +1615,86 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
       <c r="AP4" s="1"/>
       <c r="AZ4" s="13"/>
     </row>
-    <row r="5" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="U7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -1716,1006 +1706,1006 @@
       <c r="AM7" s="6"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="1:52" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="47" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="47" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="48" t="s">
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="53" t="s">
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="55"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="50"/>
       <c r="AM8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AN8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AO8" s="27"/>
+      <c r="AO8" s="22"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
+    <row r="9" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="16"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="22"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
+    <row r="10" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
       <c r="AL10" s="15"/>
       <c r="AM10" s="16"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="22"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
+    <row r="11" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="22"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
+    <row r="12" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
       <c r="AL12" s="15"/>
       <c r="AM12" s="16"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="22"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
+    <row r="13" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
       <c r="AL13" s="15"/>
       <c r="AM13" s="16"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="22"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
+    <row r="14" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
       <c r="AL14" s="15"/>
       <c r="AM14" s="16"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="22"/>
       <c r="AP14" s="1"/>
       <c r="AY14" s="7"/>
     </row>
-    <row r="15" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
+    <row r="15" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="16"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="22"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
+    <row r="16" spans="1:52" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="16"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="22"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
+    <row r="17" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="22"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
+    <row r="18" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="16"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="22"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
+    <row r="19" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="16"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="22"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
+    <row r="20" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="16"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="22"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
+    <row r="21" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="16"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="22"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
+    <row r="22" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="16"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="22"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
+    <row r="23" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="16"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="22"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
+    <row r="24" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="16"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="22"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
+    <row r="25" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="16"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="22"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
+    <row r="26" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="16"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="22"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
+    <row r="27" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
       <c r="AL27" s="15"/>
       <c r="AM27" s="16"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="22"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
+    <row r="28" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
       <c r="AL28" s="15"/>
       <c r="AM28" s="16"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="22"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
+    <row r="29" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
       <c r="AL29" s="15"/>
       <c r="AM29" s="16"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="22"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="1:42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="AD31" s="24" t="s">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="AD31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2759,145 +2749,47 @@
       <c r="AO32" s="9"/>
       <c r="AP32" s="10"/>
     </row>
-    <row r="33" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="13:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="13:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="13:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="13:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="13:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="13:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:W26"/>
-    <mergeCell ref="X26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="X25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:W25"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:W29"/>
-    <mergeCell ref="X29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="X27:AC27"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:W27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:W28"/>
-    <mergeCell ref="X28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:W22"/>
-    <mergeCell ref="X22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AK22"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:W21"/>
-    <mergeCell ref="X21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:W20"/>
-    <mergeCell ref="X20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="X19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:W16"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:V31"/>
+    <mergeCell ref="AD31:AJ31"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AJ9:AK9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:AE2"/>
     <mergeCell ref="AF1:AL2"/>
@@ -2922,38 +2814,136 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:V31"/>
-    <mergeCell ref="AD31:AJ31"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:W16"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:W21"/>
+    <mergeCell ref="X21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:W20"/>
+    <mergeCell ref="X20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="X23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="X22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:W29"/>
+    <mergeCell ref="X29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="X27:AC27"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:W27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:W28"/>
+    <mergeCell ref="X28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:W26"/>
+    <mergeCell ref="X26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="X25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:W25"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL9:AM29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL9:AM29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NOK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LFP - Plasma - 01&amp;RRev.: 00
 23/06/2017</oddFooter>
